--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1144790.492311784</v>
+        <v>1070949.299376142</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298022</v>
+        <v>405687.0519298024</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958493</v>
+        <v>11773978.35958492</v>
       </c>
     </row>
     <row r="9">
@@ -661,28 +661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>200.3360962888296</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>191.6028113849731</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>240.2580556792261</v>
       </c>
       <c r="D8" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1277,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>35.40726547353844</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>107.1524355767429</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>110.4804121001593</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393332</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>25.80212480643666</v>
       </c>
       <c r="H12" t="n">
-        <v>11.755325322808</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207139</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.9863995095175</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>72.04879203523298</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022417</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385099</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>156.9211815276446</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>193.8209438199399</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>185.1417185288412</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>33.17634618701303</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>122.787671037571</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>120.4708936104078</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.04879203523309</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022417</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385098</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>156.9211815276446</v>
+        <v>18.04768539312138</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.21210005716922</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393332</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>222.5895067489785</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1925,25 +1925,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>154.1033252695454</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>131.2760180310138</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.6035055920714</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>161.6448423772187</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9058271976456</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>7.560466512046051</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>81.92730862249833</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>259.4876475280346</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>193.3171580067855</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>82.35859283669789</v>
       </c>
       <c r="T21" t="n">
         <v>197.9863995095175</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>175.6233596816418</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.97650488133056</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>193.8209438199399</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>93.18915623846719</v>
       </c>
       <c r="C23" t="n">
-        <v>255.8940731710743</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2453,7 +2453,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>20.3247524192272</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>141.4106407312797</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>336.7291566423642</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>113.0310749869919</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>4.440065804380572</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>279.9387901805692</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>23.24679962132568</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
@@ -3161,7 +3161,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U33" t="n">
         <v>225.8879277888686</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>83.59830597394826</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>322.7860360281958</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>59.03226091544995</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.34508049624289</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>318.214870878014</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>221.5455834936717</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>141.3865903334045</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>223.1498336210767</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>28.58908008912966</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>357.4847324689627</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>223.1498336210771</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>82.26401107272277</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>44.78053305661361</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>89.06613335611763</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>62.953695695055</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,22 +4506,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>251.810259228364</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C8" t="n">
-        <v>251.810259228364</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>495.259035872464</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>495.259035872464</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>495.259035872464</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X8" t="n">
-        <v>495.259035872464</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y8" t="n">
-        <v>251.810259228364</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,10 +4892,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>55.04605772994853</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4989,25 +4989,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1028.46966628285</v>
+        <v>979.8860084900043</v>
       </c>
       <c r="C11" t="n">
-        <v>659.507149342438</v>
+        <v>979.8860084900043</v>
       </c>
       <c r="D11" t="n">
-        <v>659.507149342438</v>
+        <v>979.8860084900043</v>
       </c>
       <c r="E11" t="n">
-        <v>659.507149342438</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F11" t="n">
-        <v>659.507149342438</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G11" t="n">
-        <v>547.9107734836912</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H11" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803408</v>
+        <v>683.3219880803413</v>
       </c>
       <c r="M11" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R11" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S11" t="n">
-        <v>1834.218536131507</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T11" t="n">
-        <v>1613.335429826067</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="U11" t="n">
-        <v>1359.53255362642</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="V11" t="n">
-        <v>1028.46966628285</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="W11" t="n">
-        <v>1028.46966628285</v>
+        <v>1756.625180529938</v>
       </c>
       <c r="X11" t="n">
-        <v>1028.46966628285</v>
+        <v>1756.625180529938</v>
       </c>
       <c r="Y11" t="n">
-        <v>1028.46966628285</v>
+        <v>1366.485848554126</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377.4493816410136</v>
+        <v>768.9147044439076</v>
       </c>
       <c r="C12" t="n">
-        <v>202.9963523598866</v>
+        <v>594.4616751627806</v>
       </c>
       <c r="D12" t="n">
-        <v>54.06194269863536</v>
+        <v>445.5272655015293</v>
       </c>
       <c r="E12" t="n">
-        <v>54.06194269863536</v>
+        <v>286.2898104960738</v>
       </c>
       <c r="F12" t="n">
-        <v>54.06194269863536</v>
+        <v>139.7552525229588</v>
       </c>
       <c r="G12" t="n">
-        <v>54.06194269863536</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600102</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147163</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K12" t="n">
-        <v>303.7504955284376</v>
+        <v>253.9410299829671</v>
       </c>
       <c r="L12" t="n">
-        <v>649.8831383448789</v>
+        <v>600.0736727994084</v>
       </c>
       <c r="M12" t="n">
-        <v>1105.782828129934</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N12" t="n">
-        <v>1310.841828599075</v>
+        <v>1539.646373973722</v>
       </c>
       <c r="O12" t="n">
-        <v>1686.892462576445</v>
+        <v>1915.697007951092</v>
       </c>
       <c r="P12" t="n">
-        <v>1971.703181875404</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R12" t="n">
-        <v>2042.117567525231</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="S12" t="n">
-        <v>1878.839948962384</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="T12" t="n">
-        <v>1678.853686831559</v>
+        <v>1842.131305394407</v>
       </c>
       <c r="U12" t="n">
-        <v>1450.665982591513</v>
+        <v>1842.131305394407</v>
       </c>
       <c r="V12" t="n">
-        <v>1215.51387435977</v>
+        <v>1606.979197162664</v>
       </c>
       <c r="W12" t="n">
-        <v>961.2765176315684</v>
+        <v>1352.741840434462</v>
       </c>
       <c r="X12" t="n">
-        <v>753.4250174260355</v>
+        <v>1144.89034022893</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.6647186610817</v>
+        <v>937.1300414639757</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>320.1678244079554</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="C13" t="n">
-        <v>320.1678244079554</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="D13" t="n">
-        <v>320.1678244079554</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="E13" t="n">
-        <v>320.1678244079554</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="F13" t="n">
-        <v>320.1678244079554</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G13" t="n">
-        <v>320.1678244079554</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H13" t="n">
-        <v>247.391266796609</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I13" t="n">
-        <v>104.1336238879446</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701798</v>
+        <v>72.25456008701804</v>
       </c>
       <c r="L13" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871617</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q13" t="n">
-        <v>478.6740683752733</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R13" t="n">
-        <v>320.1678244079554</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="S13" t="n">
-        <v>320.1678244079554</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="T13" t="n">
-        <v>320.1678244079554</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="U13" t="n">
-        <v>320.1678244079554</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="V13" t="n">
-        <v>320.1678244079554</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W13" t="n">
-        <v>320.1678244079554</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="X13" t="n">
-        <v>320.1678244079554</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="Y13" t="n">
-        <v>320.1678244079554</v>
+        <v>42.18787671600104</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.642865954865</v>
+        <v>1391.731108392359</v>
       </c>
       <c r="C14" t="n">
-        <v>374.642865954865</v>
+        <v>1204.71927149454</v>
       </c>
       <c r="D14" t="n">
-        <v>374.642865954865</v>
+        <v>846.4535728877895</v>
       </c>
       <c r="E14" t="n">
-        <v>374.642865954865</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="F14" t="n">
-        <v>374.642865954865</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G14" t="n">
-        <v>374.642865954865</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856228</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953287</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803409</v>
+        <v>683.3219880803413</v>
       </c>
       <c r="M14" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R14" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S14" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T14" t="n">
-        <v>2075.882375005088</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="U14" t="n">
-        <v>1822.079498805441</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="V14" t="n">
-        <v>1491.016611461871</v>
+        <v>1778.330948456481</v>
       </c>
       <c r="W14" t="n">
-        <v>1138.247956191757</v>
+        <v>1778.330948456481</v>
       </c>
       <c r="X14" t="n">
-        <v>764.7821979306767</v>
+        <v>1778.330948456481</v>
       </c>
       <c r="Y14" t="n">
-        <v>374.642865954865</v>
+        <v>1778.330948456481</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>881.0368843733719</v>
+        <v>608.0032684786811</v>
       </c>
       <c r="C15" t="n">
-        <v>706.5838550922449</v>
+        <v>433.5502391975541</v>
       </c>
       <c r="D15" t="n">
-        <v>557.6494454309936</v>
+        <v>433.5502391975541</v>
       </c>
       <c r="E15" t="n">
-        <v>398.4119904255381</v>
+        <v>274.3127841920986</v>
       </c>
       <c r="F15" t="n">
-        <v>251.8774324524231</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="G15" t="n">
-        <v>113.6925001932248</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="H15" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600102</v>
+        <v>91.99734226147166</v>
       </c>
       <c r="K15" t="n">
-        <v>253.941029982967</v>
+        <v>303.7504955284377</v>
       </c>
       <c r="L15" t="n">
-        <v>371.2691274247618</v>
+        <v>649.8831383448791</v>
       </c>
       <c r="M15" t="n">
-        <v>827.1688172098172</v>
+        <v>1105.782828129935</v>
       </c>
       <c r="N15" t="n">
-        <v>1310.841828599075</v>
+        <v>1589.455839519192</v>
       </c>
       <c r="O15" t="n">
-        <v>1686.892462576445</v>
+        <v>1965.506473496562</v>
       </c>
       <c r="P15" t="n">
-        <v>1971.703181875404</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S15" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T15" t="n">
-        <v>1842.131305394406</v>
+        <v>1909.407573669226</v>
       </c>
       <c r="U15" t="n">
-        <v>1613.94360115436</v>
+        <v>1681.21986942918</v>
       </c>
       <c r="V15" t="n">
-        <v>1378.791492922617</v>
+        <v>1446.067761197437</v>
       </c>
       <c r="W15" t="n">
-        <v>1378.791492922617</v>
+        <v>1191.830404469236</v>
       </c>
       <c r="X15" t="n">
-        <v>1170.939992717084</v>
+        <v>983.978904263703</v>
       </c>
       <c r="Y15" t="n">
-        <v>1049.25222139344</v>
+        <v>776.2186054987492</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>320.1678244079555</v>
+        <v>509.1537926386368</v>
       </c>
       <c r="C16" t="n">
-        <v>320.1678244079555</v>
+        <v>340.2176097107299</v>
       </c>
       <c r="D16" t="n">
-        <v>320.1678244079555</v>
+        <v>190.1009702983941</v>
       </c>
       <c r="E16" t="n">
-        <v>320.1678244079555</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="F16" t="n">
-        <v>320.1678244079555</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G16" t="n">
-        <v>320.1678244079555</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H16" t="n">
-        <v>247.391266796609</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I16" t="n">
-        <v>104.1336238879446</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701802</v>
       </c>
       <c r="L16" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q16" t="n">
-        <v>478.6740683752734</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R16" t="n">
-        <v>320.1678244079555</v>
+        <v>509.1537926386368</v>
       </c>
       <c r="S16" t="n">
-        <v>320.1678244079555</v>
+        <v>509.1537926386368</v>
       </c>
       <c r="T16" t="n">
-        <v>320.1678244079555</v>
+        <v>509.1537926386368</v>
       </c>
       <c r="U16" t="n">
-        <v>320.1678244079555</v>
+        <v>509.1537926386368</v>
       </c>
       <c r="V16" t="n">
-        <v>320.1678244079555</v>
+        <v>509.1537926386368</v>
       </c>
       <c r="W16" t="n">
-        <v>320.1678244079555</v>
+        <v>509.1537926386368</v>
       </c>
       <c r="X16" t="n">
-        <v>320.1678244079555</v>
+        <v>509.1537926386368</v>
       </c>
       <c r="Y16" t="n">
-        <v>320.1678244079555</v>
+        <v>509.1537926386368</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.18787671600102</v>
+        <v>1240.613742019565</v>
       </c>
       <c r="C17" t="n">
-        <v>42.18787671600102</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="D17" t="n">
-        <v>42.18787671600102</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="E17" t="n">
-        <v>42.18787671600102</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F17" t="n">
-        <v>42.18787671600102</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J17" t="n">
         <v>115.2290882856225</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953287</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L17" t="n">
         <v>683.321988080341</v>
@@ -5527,40 +5527,40 @@
         <v>1075.883192613821</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S17" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T17" t="n">
-        <v>1801.217385823971</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="U17" t="n">
-        <v>1547.414509624324</v>
+        <v>1855.590959600405</v>
       </c>
       <c r="V17" t="n">
-        <v>1216.351622280753</v>
+        <v>1630.753073995376</v>
       </c>
       <c r="W17" t="n">
-        <v>863.5829670106393</v>
+        <v>1630.753073995376</v>
       </c>
       <c r="X17" t="n">
-        <v>490.1172087495594</v>
+        <v>1630.753073995376</v>
       </c>
       <c r="Y17" t="n">
-        <v>99.97787677374771</v>
+        <v>1240.613742019565</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377.4493816410136</v>
+        <v>644.7119120466598</v>
       </c>
       <c r="C18" t="n">
-        <v>221.7894571263213</v>
+        <v>470.2588827655328</v>
       </c>
       <c r="D18" t="n">
-        <v>221.7894571263213</v>
+        <v>321.3244731042815</v>
       </c>
       <c r="E18" t="n">
-        <v>221.7894571263213</v>
+        <v>321.3244731042815</v>
       </c>
       <c r="F18" t="n">
-        <v>221.7894571263213</v>
+        <v>174.7899151311665</v>
       </c>
       <c r="G18" t="n">
-        <v>221.7894571263213</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H18" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J18" t="n">
-        <v>91.99734226147162</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K18" t="n">
-        <v>303.7504955284376</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="L18" t="n">
-        <v>649.8831383448788</v>
+        <v>388.3205195324425</v>
       </c>
       <c r="M18" t="n">
-        <v>827.1688172098176</v>
+        <v>827.1688172098179</v>
       </c>
       <c r="N18" t="n">
-        <v>1310.841828599075</v>
+        <v>1310.841828599076</v>
       </c>
       <c r="O18" t="n">
-        <v>1686.892462576445</v>
+        <v>1686.892462576446</v>
       </c>
       <c r="P18" t="n">
-        <v>1971.703181875404</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R18" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S18" t="n">
-        <v>1878.839948962384</v>
+        <v>1946.116217237205</v>
       </c>
       <c r="T18" t="n">
-        <v>1678.853686831559</v>
+        <v>1946.116217237205</v>
       </c>
       <c r="U18" t="n">
-        <v>1450.665982591513</v>
+        <v>1717.928512997159</v>
       </c>
       <c r="V18" t="n">
-        <v>1215.51387435977</v>
+        <v>1482.776404765416</v>
       </c>
       <c r="W18" t="n">
-        <v>961.2765176315684</v>
+        <v>1228.539048037215</v>
       </c>
       <c r="X18" t="n">
-        <v>753.4250174260355</v>
+        <v>1020.687547831682</v>
       </c>
       <c r="Y18" t="n">
-        <v>545.6647186610817</v>
+        <v>812.9272490667279</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.18787671600102</v>
+        <v>368.8775339168963</v>
       </c>
       <c r="C19" t="n">
-        <v>42.18787671600102</v>
+        <v>199.9413509889893</v>
       </c>
       <c r="D19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.82471157665361</v>
       </c>
       <c r="E19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.82471157665361</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.82471157665361</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.82471157665361</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600102</v>
+        <v>49.82471157665361</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701796</v>
+        <v>72.25456008701804</v>
       </c>
       <c r="L19" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053804</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503601</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871616</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842136</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842136</v>
+        <v>368.8775339168963</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842136</v>
+        <v>368.8775339168963</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842136</v>
+        <v>368.8775339168963</v>
       </c>
       <c r="U19" t="n">
-        <v>527.3837778842136</v>
+        <v>368.8775339168963</v>
       </c>
       <c r="V19" t="n">
-        <v>527.3837778842136</v>
+        <v>368.8775339168963</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3837778842136</v>
+        <v>368.8775339168963</v>
       </c>
       <c r="X19" t="n">
-        <v>444.6289206897708</v>
+        <v>368.8775339168963</v>
       </c>
       <c r="Y19" t="n">
-        <v>223.8363415462407</v>
+        <v>368.8775339168963</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>411.1503936564127</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="C20" t="n">
-        <v>42.18787671600102</v>
+        <v>1519.5482125542</v>
       </c>
       <c r="D20" t="n">
-        <v>42.18787671600102</v>
+        <v>1519.5482125542</v>
       </c>
       <c r="E20" t="n">
-        <v>42.18787671600102</v>
+        <v>1133.759959955956</v>
       </c>
       <c r="F20" t="n">
-        <v>42.18787671600102</v>
+        <v>722.774055166348</v>
       </c>
       <c r="G20" t="n">
-        <v>42.18787671600102</v>
+        <v>304.2966115928037</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K20" t="n">
         <v>345.4437346953284</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803408</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T20" t="n">
-        <v>1914.12397922754</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U20" t="n">
-        <v>1914.12397922754</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="V20" t="n">
-        <v>1914.12397922754</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="W20" t="n">
-        <v>1561.355323957426</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="X20" t="n">
-        <v>1187.889565696346</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="Y20" t="n">
-        <v>797.7502337205345</v>
+        <v>1888.510729494611</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>917.6292178292446</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C21" t="n">
-        <v>743.1761885481176</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D21" t="n">
-        <v>594.2417788868663</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E21" t="n">
-        <v>435.0043238814109</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="F21" t="n">
-        <v>288.4697659082958</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G21" t="n">
-        <v>150.2848336490975</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600102</v>
+        <v>91.99734226147169</v>
       </c>
       <c r="K21" t="n">
-        <v>253.941029982967</v>
+        <v>303.7504955284377</v>
       </c>
       <c r="L21" t="n">
-        <v>600.0736727994083</v>
+        <v>649.8831383448792</v>
       </c>
       <c r="M21" t="n">
-        <v>1055.973362584464</v>
+        <v>1105.782828129935</v>
       </c>
       <c r="N21" t="n">
-        <v>1448.532482523722</v>
+        <v>1589.455839519193</v>
       </c>
       <c r="O21" t="n">
-        <v>1824.583116501092</v>
+        <v>1965.506473496563</v>
       </c>
       <c r="P21" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S21" t="n">
-        <v>1878.839948962384</v>
+        <v>2026.203337985206</v>
       </c>
       <c r="T21" t="n">
-        <v>1678.853686831559</v>
+        <v>1826.21707585438</v>
       </c>
       <c r="U21" t="n">
-        <v>1678.853686831559</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V21" t="n">
-        <v>1678.853686831559</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W21" t="n">
-        <v>1501.456353819799</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X21" t="n">
-        <v>1293.604853614266</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y21" t="n">
-        <v>1085.844554849313</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.1240596439079</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701804</v>
       </c>
       <c r="L22" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871617</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="S22" t="n">
-        <v>309.0801251806055</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="T22" t="n">
-        <v>309.0801251806055</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="U22" t="n">
-        <v>309.0801251806055</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V22" t="n">
-        <v>309.0801251806055</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W22" t="n">
-        <v>309.0801251806055</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="X22" t="n">
-        <v>309.0801251806055</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="Y22" t="n">
-        <v>309.0801251806055</v>
+        <v>42.18787671600104</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2366.086203674652</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C23" t="n">
-        <v>2107.607341885688</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D23" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W23" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X23" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y23" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="24">
@@ -6065,40 +6065,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X25" t="n">
-        <v>210.7222632714563</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2323.103882821189</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C26" t="n">
-        <v>1954.141365880777</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.875667274027</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>555.1337307379863</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2323.103882821189</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2323.103882821189</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2323.103882821189</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>2323.103882821189</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.103882821189</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y26" t="n">
-        <v>2323.103882821189</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6317,13 +6317,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1507.089911220684</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C29" t="n">
-        <v>1138.127394280272</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D29" t="n">
-        <v>779.861695673522</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E29" t="n">
-        <v>394.0734430752778</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y29" t="n">
-        <v>1893.689751284806</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.2716929833838</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C31" t="n">
-        <v>359.2716929833838</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D31" t="n">
-        <v>359.2716929833838</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>359.2716929833838</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>359.2716929833838</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>613.9561811892706</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>613.9561811892706</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>359.2716929833838</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>976.0491016702019</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C32" t="n">
-        <v>976.0491016702019</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D32" t="n">
-        <v>976.0491016702019</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>976.0491016702019</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1739.654191907093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1366.188433646014</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y32" t="n">
-        <v>976.0491016702019</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6779,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6809,13 +6809,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2107.405821939171</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2107.405821939171</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>902.4179758042681</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>533.4554588638564</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W35" t="n">
-        <v>1662.48357412947</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X35" t="n">
-        <v>1289.01781586839</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>1289.01781586839</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7019,16 +7019,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7040,19 +7040,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2305.297090124192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2305.297090124192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2305.297090124192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2305.297090124192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2305.297090124192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2305.297090124192</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>2305.297090124192</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>2305.297090124192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>2305.297090124192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2305.297090124192</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>744.3346612638206</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C38" t="n">
-        <v>375.3721443234089</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D38" t="n">
-        <v>375.3721443234089</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>375.3721443234089</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W38" t="n">
-        <v>1894.539591564834</v>
+        <v>2164.575198516432</v>
       </c>
       <c r="X38" t="n">
-        <v>1521.073833303754</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="Y38" t="n">
-        <v>1130.934501327942</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7280,16 +7280,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632152</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632152</v>
+        <v>196.757719530874</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632152</v>
+        <v>196.757719530874</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632152</v>
+        <v>196.757719530874</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632152</v>
+        <v>196.757719530874</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W40" t="n">
-        <v>2471.7452186737</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X40" t="n">
-        <v>2243.755667775682</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632152</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1580.775345511217</v>
+        <v>1624.753525949915</v>
       </c>
       <c r="C41" t="n">
-        <v>1211.812828570805</v>
+        <v>1624.753525949915</v>
       </c>
       <c r="D41" t="n">
-        <v>1211.812828570805</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E41" t="n">
-        <v>826.0245759725606</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F41" t="n">
-        <v>415.038671182953</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487028</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.775345511217</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>2471.7452186737</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V43" t="n">
-        <v>2471.7452186737</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>2471.7452186737</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>2243.755667775683</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755378</v>
+        <v>1293.1823753553</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1293.1823753553</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036444</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036444</v>
@@ -7651,13 +7651,13 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7675,25 +7675,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2651.916229344875</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2651.916229344875</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2651.916229344875</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V44" t="n">
-        <v>2320.853342001304</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W44" t="n">
-        <v>1968.08468673119</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="X44" t="n">
-        <v>1968.08468673119</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y44" t="n">
-        <v>1577.945354755378</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="45">
@@ -7727,34 +7727,34 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
         <v>2289.884200196743</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C46" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D46" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>290.7987205870805</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>143.9087730891701</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>143.9087730891701</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W46" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X46" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.7118141694736</v>
+        <v>222.942782082032</v>
       </c>
     </row>
   </sheetData>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033748</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>197.9140804848494</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>226.4285348520593</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509467</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033751</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>139.7246429048263</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>37.03447478123342</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033748</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>50.5731630055422</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>184.2767698912962</v>
+        <v>448.4814353584038</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033751</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>387.3081405556751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>176.1159433919877</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.99581912509471</v>
+        <v>70.99581912509466</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,7 +10679,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,7 +10904,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,28 +22549,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296655</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22801,10 +22801,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157632</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>14.07988439233128</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,10 +23023,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>125.0148360917815</v>
       </c>
       <c r="D8" t="n">
-        <v>124.4792166637132</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>170.365719729939</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>274.7779344955189</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>303.8122570376495</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86.42041023393327</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>111.0009581301697</v>
       </c>
       <c r="H12" t="n">
-        <v>95.26066204095753</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>86.15007047769886</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>61.32628970022415</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>48.22261241385096</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S13" t="n">
         <v>216.1206161765721</v>
@@ -23475,10 +23475,10 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>58.31669950388812</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>180.1311732421663</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
         <v>171.5352284535379</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393331</v>
+        <v>86.42041023393328</v>
       </c>
       <c r="S14" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
-        <v>185.4979290553729</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>22.28154135581285</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H15" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S15" t="n">
         <v>161.6448423772186</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>85.21180216689656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,13 +23670,13 @@
         <v>167.537897457236</v>
       </c>
       <c r="H16" t="n">
-        <v>86.15007047769875</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>138.8734961345232</v>
       </c>
       <c r="S16" t="n">
         <v>216.1206161765721</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>325.5217416063114</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>329.1304393464753</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.42041023393327</v>
       </c>
       <c r="S17" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>105.1627517211564</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>18.60517371877032</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>5.527064905592511</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.60350559207136</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,10 +23910,10 @@
         <v>158.1988625129318</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>134.2645999675316</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022418</v>
+        <v>61.32628970022415</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.222612413851</v>
+        <v>48.22261241385096</v>
       </c>
       <c r="R19" t="n">
-        <v>156.9211815276446</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>216.1206161765721</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.7823467665388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>69.64279181844063</v>
       </c>
       <c r="I20" t="n">
         <v>171.5352284535379</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393331</v>
+        <v>86.42041023393327</v>
       </c>
       <c r="S20" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
-        <v>25.35711723560041</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2648474376504</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245151</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.60350559207136</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>79.28624954052073</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>76.07162347927778</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.85547530060674</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022415</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385098</v>
+        <v>48.22261241385096</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
         <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830251</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>289.5446854250134</v>
       </c>
       <c r="C23" t="n">
-        <v>109.3788185999332</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24420,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>386.5512933224842</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>75.03767962637809</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24648,16 +24648,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>158.9207969366494</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>70.14688909934722</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>39.36125675848751</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24891,13 +24891,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>112.0040304710923</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>214.1445875477142</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>74.74425144011371</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>383.6292461203857</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>168.5393373498798</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>31.89700559248718</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>268.7199975546849</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>67.96472176280803</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>88.6611748636974</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>127.6953852237413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>25.92321192564643</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25596,10 +25596,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>63.37316471551432</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>326.0939615315533</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>56.29943755183228</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,13 +25684,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,22 +25839,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>63.1320406209006</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>272.4190305479602</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25915,22 +25915,22 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>129.6351797523579</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>67.10475548567752</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>223.3281785469227</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>423769.2598999697</v>
+        <v>423769.2598999696</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>423769.2598999696</v>
+        <v>423769.2598999695</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>628257.8877287937</v>
+        <v>628257.8877287939</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>628257.8877287938</v>
+        <v>628257.8877287939</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>628257.8877287937</v>
+        <v>628257.8877287938</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731739.4345746958</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
-        <v>247828.6760862712</v>
+        <v>247828.6760862711</v>
       </c>
       <c r="F2" t="n">
         <v>247828.6760862712</v>
@@ -26331,7 +26331,7 @@
         <v>247828.6760862712</v>
       </c>
       <c r="H2" t="n">
-        <v>247828.6760862711</v>
+        <v>247828.6760862713</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157574</v>
@@ -26340,22 +26340,22 @@
         <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="L2" t="n">
         <v>289152.6100157577</v>
       </c>
-      <c r="L2" t="n">
-        <v>289152.6100157576</v>
-      </c>
       <c r="M2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="O2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="P2" t="n">
         <v>289152.6100157575</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289152.6100157576</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134255</v>
+        <v>287351.7100134257</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116922</v>
+        <v>134288.701511692</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871086</v>
+        <v>71355.62051871087</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>9085.960889837486</v>
       </c>
       <c r="F4" t="n">
-        <v>9085.960889837486</v>
+        <v>9085.960889837488</v>
       </c>
       <c r="G4" t="n">
         <v>9085.960889837486</v>
@@ -26441,25 +26441,25 @@
         <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="K4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="L4" t="n">
-        <v>9371.018034361485</v>
-      </c>
       <c r="M4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="P4" t="n">
         <v>9371.018034361481</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730637</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28562.86116668056</v>
+        <v>16344.85054664009</v>
       </c>
       <c r="C6" t="n">
-        <v>109332.2926982283</v>
+        <v>97114.28207818785</v>
       </c>
       <c r="D6" t="n">
-        <v>109332.2926982283</v>
+        <v>97114.28207818785</v>
       </c>
       <c r="E6" t="n">
-        <v>-86149.12941429822</v>
+        <v>-94283.73985659196</v>
       </c>
       <c r="F6" t="n">
-        <v>201202.5805991273</v>
+        <v>193067.9701568338</v>
       </c>
       <c r="G6" t="n">
-        <v>201202.5805991273</v>
+        <v>193067.9701568338</v>
       </c>
       <c r="H6" t="n">
-        <v>201202.5805991272</v>
+        <v>193067.9701568338</v>
       </c>
       <c r="I6" t="n">
-        <v>96261.41240629424</v>
+        <v>90192.99866047534</v>
       </c>
       <c r="J6" t="n">
-        <v>167490.1713188802</v>
+        <v>161421.757573061</v>
       </c>
       <c r="K6" t="n">
-        <v>230550.1139179867</v>
+        <v>224481.7001721674</v>
       </c>
       <c r="L6" t="n">
-        <v>230550.1139179866</v>
+        <v>224481.7001721675</v>
       </c>
       <c r="M6" t="n">
-        <v>159194.4933992757</v>
+        <v>153126.0796534564</v>
       </c>
       <c r="N6" t="n">
-        <v>230550.1139179866</v>
+        <v>224481.7001721673</v>
       </c>
       <c r="O6" t="n">
-        <v>230550.1139179866</v>
+        <v>224481.7001721673</v>
       </c>
       <c r="P6" t="n">
-        <v>230550.1139179867</v>
+        <v>224481.7001721674</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="G3" t="n">
-        <v>251.25450885989</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.348458950013</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.348458950013</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.348458950013</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.348458950013</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26825,10 +26825,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="O4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571966</v>
+        <v>126.4891553571964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045429</v>
+        <v>146.9388138045425</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686799</v>
+        <v>38.94066111686802</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008883</v>
+        <v>85.72829094008888</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L11" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P11" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721636</v>
+        <v>63.44870770721641</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745401</v>
+        <v>4.421574321745403</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609521</v>
+        <v>0.08080547018609527</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042922</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730924</v>
+        <v>5.219456872730928</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632917</v>
+        <v>51.05918278632921</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881672</v>
+        <v>87.26827596881678</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P12" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092685</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057177</v>
       </c>
       <c r="S12" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T12" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227528</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507751</v>
       </c>
       <c r="I13" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J13" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933436</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269906</v>
+        <v>67.3609219326991</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985382</v>
+        <v>71.02264747985387</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620548</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464871</v>
+        <v>64.04106727464875</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970455</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400147</v>
+        <v>7.895981860400153</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133578</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851382</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I14" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008884</v>
+        <v>85.72829094008888</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L14" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P14" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721637</v>
+        <v>63.4487077072164</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745403</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042922</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730925</v>
+        <v>5.219456872730928</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632918</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881678</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M15" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O15" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092685</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S15" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227528</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507748</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I16" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J16" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933436</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985383</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464875</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970455</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400148</v>
+        <v>7.895981860400152</v>
       </c>
       <c r="T16" t="n">
         <v>1.935895396133579</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686799</v>
+        <v>38.94066111686802</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008881</v>
+        <v>85.7282909400889</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601775</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P17" t="n">
-        <v>145.2490952449779</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721635</v>
+        <v>63.44870770721641</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832058</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T17" t="n">
-        <v>4.4215743217454</v>
+        <v>4.421574321745404</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0808054701860952</v>
+        <v>0.08080547018609528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042917</v>
+        <v>0.5404342266042923</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730923</v>
+        <v>5.219456872730929</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632917</v>
+        <v>51.05918278632922</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881671</v>
+        <v>87.26827596881679</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M18" t="n">
-        <v>136.93370732864</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973816</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P18" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092679</v>
+        <v>68.98595496092686</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057174</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S18" t="n">
-        <v>10.03832872661918</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922973</v>
+        <v>0.03555488332922977</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227524</v>
+        <v>0.4530819012227529</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507747</v>
+        <v>4.028309994507751</v>
       </c>
       <c r="I19" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644859</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933431</v>
+        <v>52.63987906933437</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269904</v>
+        <v>67.3609219326991</v>
       </c>
       <c r="M19" t="n">
-        <v>71.0226474798538</v>
+        <v>71.02264747985387</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620543</v>
+        <v>69.3338876662055</v>
       </c>
       <c r="O19" t="n">
-        <v>64.0410672746487</v>
+        <v>64.04106727464877</v>
       </c>
       <c r="P19" t="n">
-        <v>54.7981964897045</v>
+        <v>54.79819648970456</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784339</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952484</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400146</v>
+        <v>7.895981860400154</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133578</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851382</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I20" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686802</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008884</v>
+        <v>85.7282909400889</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P20" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721637</v>
+        <v>63.44870770721641</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745404</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.08080547018609528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042923</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730925</v>
+        <v>5.219456872730929</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632918</v>
+        <v>51.05918278632922</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881679</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P21" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092686</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S21" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922977</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227529</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507751</v>
       </c>
       <c r="I22" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J22" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933437</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269906</v>
+        <v>67.3609219326991</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985383</v>
+        <v>71.02264747985387</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620544</v>
+        <v>69.3338876662055</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464877</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970456</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400148</v>
+        <v>7.895981860400154</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133579</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851382</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547631</v>
+        <v>73.77900158547637</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O11" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P11" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743891</v>
+        <v>99.08532226743898</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007132</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070363</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N12" t="n">
-        <v>207.1303035041824</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O12" t="n">
         <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514739</v>
+        <v>195.653361463596</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345151</v>
       </c>
       <c r="L13" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301524</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N13" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868838</v>
+        <v>88.62619518868843</v>
       </c>
       <c r="P13" t="n">
-        <v>52.076755754598</v>
+        <v>52.07675575459804</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547632</v>
+        <v>73.77900158547637</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O14" t="n">
         <v>320.887128151277</v>
@@ -35667,7 +35667,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743893</v>
+        <v>99.08532226743898</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>50.31259146007135</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070363</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5132297391867</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M15" t="n">
         <v>460.5047371566217</v>
@@ -35743,7 +35743,7 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6875952514739</v>
+        <v>6.25930139277016</v>
       </c>
       <c r="Q15" t="n">
         <v>139.0814686107544</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345148</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L16" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O16" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868843</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459801</v>
+        <v>52.07675575459804</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547629</v>
+        <v>73.77900158547638</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O17" t="n">
-        <v>320.8871281512769</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P17" t="n">
-        <v>235.814807661191</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743888</v>
+        <v>99.085322267439</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.31259146007131</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8920740070363</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378194</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M18" t="n">
-        <v>179.0764432979179</v>
+        <v>443.2811087650257</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628864</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296667</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514738</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q18" t="n">
         <v>139.0814686107544</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345146</v>
+        <v>30.37038724345152</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301518</v>
+        <v>94.95094719301524</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N19" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868837</v>
+        <v>88.62619518868844</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459799</v>
+        <v>52.07675575459805</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547632</v>
+        <v>73.77900158547638</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N20" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O20" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743893</v>
+        <v>99.085322267439</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>50.31259146007136</v>
       </c>
       <c r="K21" t="n">
-        <v>213.8920740070363</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N21" t="n">
-        <v>396.524363575008</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O21" t="n">
         <v>379.8491252296668</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514739</v>
+        <v>145.3407700035245</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345152</v>
       </c>
       <c r="L22" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301524</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N22" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O22" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868844</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459801</v>
+        <v>52.07675575459805</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,7 +37399,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
